--- a/AKT OSAGO.xlsx
+++ b/AKT OSAGO.xlsx
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -690,6 +690,16 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1020,14 +1030,14 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="16" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
@@ -1049,7 +1059,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1096,7 +1106,7 @@
       <c r="B2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="14">
         <v>585</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1143,7 +1153,7 @@
       <c r="B3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1190,7 +1200,7 @@
       <c r="B4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1237,7 +1247,7 @@
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1284,7 +1294,7 @@
       <c r="B6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1331,7 +1341,7 @@
       <c r="B7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1378,7 +1388,7 @@
       <c r="B8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1425,7 +1435,7 @@
       <c r="B9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1472,7 +1482,7 @@
       <c r="B10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1519,7 +1529,7 @@
       <c r="B11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1566,7 +1576,7 @@
       <c r="B12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1613,7 +1623,7 @@
       <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1660,7 +1670,7 @@
       <c r="B14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1707,7 +1717,7 @@
       <c r="B15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1754,7 +1764,7 @@
       <c r="B16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1801,7 +1811,7 @@
       <c r="B17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D17" s="9" t="s">
